--- a/e2e/Emision_Autos/Default.xlsx
+++ b/e2e/Emision_Autos/Default.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
   <si>
     <t>MENU_TREE</t>
   </si>
@@ -38,6 +38,12 @@
     <t>BUSCAR_ZONA_GESTION</t>
   </si>
   <si>
+    <t>BUSCAR_LISTA_DE_COBERTURA</t>
+  </si>
+  <si>
+    <t>%A045</t>
+  </si>
+  <si>
     <t>LINEA_DE_NEGOCIO_FILTRO</t>
   </si>
   <si>
@@ -53,6 +59,9 @@
     <t>ALFRIDA GRUBB</t>
   </si>
   <si>
+    <t>%A02</t>
+  </si>
+  <si>
     <t>AUTOMOVILES</t>
   </si>
   <si>
@@ -77,6 +86,9 @@
     <t>No Aplica</t>
   </si>
   <si>
+    <t>PLAN_DEL_PRODUCTO</t>
+  </si>
+  <si>
     <t>CONTRASENIA</t>
   </si>
   <si>
@@ -98,6 +110,9 @@
     <t>%012</t>
   </si>
   <si>
+    <t>AUTO PROTEGIDO PLUS</t>
+  </si>
+  <si>
     <t>TIPO_VALOR</t>
   </si>
   <si>
@@ -131,6 +146,9 @@
     <t>ACUERDO_DE_PAGO</t>
   </si>
   <si>
+    <t>LISTA_DE_COBERTURA</t>
+  </si>
+  <si>
     <t>%NEGOCIO CORPORATIVO</t>
   </si>
   <si>
@@ -152,6 +170,9 @@
     <t>012</t>
   </si>
   <si>
+    <t>001</t>
+  </si>
+  <si>
     <t>CUADERNO_DE_BONO</t>
   </si>
   <si>
@@ -164,6 +185,9 @@
     <t>LISTA_PAIS_ESTADO_PLACA</t>
   </si>
   <si>
+    <t>%A018</t>
+  </si>
+  <si>
     <t>NAVEGADOR</t>
   </si>
   <si>
@@ -189,6 +213,9 @@
   </si>
   <si>
     <t>%PUEBLA</t>
+  </si>
+  <si>
+    <t>BUSCAR_LISTA_DE_COBERTURA2</t>
   </si>
   <si>
     <t>Acsel;Suscripcion;Emisión / Modificación</t>
@@ -497,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
@@ -509,17 +536,23 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,33 +849,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AZ2"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="14.96484375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.60546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.3671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="54.078125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.41796875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.3046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="17" width="9.41796875" style="5" customWidth="1"/>
-    <col min="18" max="18" width="9.6875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="10.8984375" style="5" customWidth="1"/>
-    <col min="20" max="20" width="26.09765625" style="5" customWidth="1"/>
-    <col min="21" max="21" width="17.35546875" style="5" customWidth="1"/>
-    <col min="22" max="22" width="39.95703125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="23.0078125" style="5" customWidth="1"/>
-    <col min="24" max="24" width="26.49609375" style="5" customWidth="1"/>
-    <col min="25" max="27" width="9.41796875" style="5" customWidth="1"/>
-    <col min="28" max="28" width="33.3671875" style="5" customWidth="1"/>
-    <col min="29" max="52" width="9.41796875" style="5" customWidth="1"/>
-    <col min="53" max="16384" width="9.078125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.96484375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.60546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.3671875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="54.078125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.41796875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.3046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="17" width="9.41796875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="9.6875" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.8984375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="26.09765625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="17.35546875" style="6" customWidth="1"/>
+    <col min="22" max="22" width="39.95703125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="23.0078125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="26.49609375" style="6" customWidth="1"/>
+    <col min="25" max="27" width="9.41796875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="33.3671875" style="6" customWidth="1"/>
+    <col min="29" max="56" width="9.41796875" style="6" customWidth="1"/>
+    <col min="57" max="16384" width="9.078125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="1">
@@ -853,207 +886,219 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="AL1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="AX1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AZ1" s="8" t="s">
-        <v>6</v>
+      <c r="BD1" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R2" s="2">
         <v>6032962</v>
@@ -1062,103 +1107,285 @@
         <v>1</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AA2" s="2">
         <v>2020</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="AI2" s="2">
         <v>0</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AP2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT2" s="7">
-        <v>45457</v>
+        <v>19</v>
+      </c>
+      <c r="AT2" s="10">
+        <v>45458</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AV2" s="2">
         <v>0</v>
       </c>
       <c r="AW2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AX2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="2">
+        <v>6032962</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT3" s="8">
+        <v>45458</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY3" s="2" t="s">
         <v>84</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD3" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1403,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="5" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customFormat="1"/>

--- a/e2e/Emision_Autos/Default.xlsx
+++ b/e2e/Emision_Autos/Default.xlsx
@@ -533,10 +533,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
@@ -545,14 +545,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,8 +851,8 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:BD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -878,7 +878,7 @@
     <col min="57" max="16384" width="9.078125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1">
+    <row r="1" s="11" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1044,7 @@
       <c r="BC1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BD1" s="11" t="s">
+      <c r="BD1" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       <c r="O2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="Q2" s="2" t="s">
@@ -1142,7 +1142,7 @@
       <c r="AE2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="AG2" s="2" t="s">
@@ -1160,7 +1160,7 @@
       <c r="AK2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AL2" s="5" t="s">
         <v>101</v>
       </c>
       <c r="AM2" s="3" t="s">
@@ -1185,7 +1185,7 @@
         <v>19</v>
       </c>
       <c r="AT2" s="10">
-        <v>45458</v>
+        <v>45461</v>
       </c>
       <c r="AU2" s="3" t="s">
         <v>65</v>
@@ -1264,7 +1264,7 @@
       <c r="O3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -1312,7 +1312,7 @@
       <c r="AE3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AF3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="AG3" s="2" t="s">
@@ -1330,7 +1330,7 @@
       <c r="AK3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AL3" s="5" t="s">
+      <c r="AL3" s="4" t="s">
         <v>101</v>
       </c>
       <c r="AM3" s="3" t="s">
@@ -1354,8 +1354,8 @@
       <c r="AS3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AT3" s="8">
-        <v>45458</v>
+      <c r="AT3" s="9">
+        <v>45461</v>
       </c>
       <c r="AU3" s="3" t="s">
         <v>65</v>

--- a/e2e/Emision_Autos/Default.xlsx
+++ b/e2e/Emision_Autos/Default.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <t>MENU_TREE</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>%A02</t>
+  </si>
+  <si>
+    <t>SUBMANU2_TREE</t>
   </si>
   <si>
     <t>AUTOMOVILES</t>
@@ -542,17 +545,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BE3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -875,10 +878,11 @@
     <col min="25" max="27" width="9.41796875" style="6" customWidth="1"/>
     <col min="28" max="28" width="33.3671875" style="6" customWidth="1"/>
     <col min="29" max="56" width="9.41796875" style="6" customWidth="1"/>
-    <col min="57" max="16384" width="9.078125" style="6" customWidth="1"/>
+    <col min="57" max="57" width="22.60546875" style="6" customWidth="1"/>
+    <col min="58" max="16384" width="9.078125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1">
+    <row r="1" s="10" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,19 +890,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -907,171 +911,174 @@
         <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD1" s="8" t="s">
-        <v>43</v>
+        <v>67</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE1" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -1080,22 +1087,22 @@
         <v>11</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>13</v>
@@ -1107,141 +1114,142 @@
         <v>1</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA2" s="2">
         <v>2020</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AH2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI2" s="2">
         <v>0</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT2" s="10">
-        <v>45461</v>
+        <v>20</v>
+      </c>
+      <c r="AT2" s="8">
+        <v>45463</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AV2" s="2">
         <v>0</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BC2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BD2" s="7">
+      <c r="BD2" s="2">
         <v>0</v>
       </c>
+      <c r="BE2" s="9"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -1250,22 +1258,22 @@
         <v>11</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>13</v>
@@ -1277,116 +1285,117 @@
         <v>1</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA3" s="2">
         <v>2020</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AH3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI3" s="2">
         <v>0</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT3" s="9">
-        <v>45461</v>
+        <v>20</v>
+      </c>
+      <c r="AT3" s="7">
+        <v>45463</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AV3" s="2">
         <v>0</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BC3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BD3" s="7">
+      <c r="BD3" s="2">
         <v>0</v>
       </c>
+      <c r="BE3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/e2e/Emision_Autos/Default.xlsx
+++ b/e2e/Emision_Autos/Default.xlsx
@@ -504,9 +504,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -517,7 +515,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -536,26 +536,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,8 +854,8 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:BE3"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -1051,7 +1051,7 @@
       <c r="BD1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BE1" s="11" t="s">
+      <c r="BE1" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       <c r="O2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="Q2" s="2" t="s">
@@ -1149,7 +1149,7 @@
       <c r="AE2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AG2" s="2" t="s">
@@ -1167,7 +1167,7 @@
       <c r="AK2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AL2" s="4" t="s">
         <v>102</v>
       </c>
       <c r="AM2" s="3" t="s">
@@ -1191,8 +1191,8 @@
       <c r="AS2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AT2" s="8">
-        <v>45463</v>
+      <c r="AT2" s="7">
+        <v>45484</v>
       </c>
       <c r="AU2" s="3" t="s">
         <v>66</v>
@@ -1272,7 +1272,7 @@
       <c r="O3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -1320,7 +1320,7 @@
       <c r="AE3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AF3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="AG3" s="2" t="s">
@@ -1338,7 +1338,7 @@
       <c r="AK3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AL3" s="5" t="s">
         <v>102</v>
       </c>
       <c r="AM3" s="3" t="s">
@@ -1362,8 +1362,8 @@
       <c r="AS3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AT3" s="7">
-        <v>45463</v>
+      <c r="AT3" s="11">
+        <v>45484</v>
       </c>
       <c r="AU3" s="3" t="s">
         <v>66</v>
